--- a/data/trans_orig/Q47-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Habitat-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>171.9903365016824</v>
+        <v>172.0243101178735</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>171.7443270310968</v>
+        <v>171.7184040639524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>172.4387657165155</v>
+        <v>172.3813699312336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>172.6872588707016</v>
+        <v>172.7255602568634</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>160.0367898200453</v>
+        <v>160.0537031238609</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>160.067881398756</v>
+        <v>160.0641390662611</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>160.1948063641913</v>
+        <v>160.1498650151309</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>161.5547696753738</v>
+        <v>161.5720500794233</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>166.05660183289</v>
+        <v>166.1050773798896</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166.0331450837329</v>
+        <v>166.072540133509</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166.3691257915717</v>
+        <v>166.4255208647968</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>167.080430866011</v>
+        <v>167.0887234868039</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>173.1348012747807</v>
+        <v>173.1432992582578</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>172.9495092219153</v>
+        <v>172.841885389967</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>173.6153279281511</v>
+        <v>173.5226236641533</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>173.8545770735484</v>
+        <v>173.9174137299885</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>161.0547018086541</v>
+        <v>161.0554815183638</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>161.1508098670233</v>
+        <v>161.1615648594335</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>161.313440260682</v>
+        <v>161.308284652825</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>162.3863021312972</v>
+        <v>162.39674979092</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>167.0571338939411</v>
+        <v>167.0770747623137</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>167.0572177073096</v>
+        <v>167.1152868532528</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>167.4758074343189</v>
+        <v>167.4807097569127</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>168.0958862214035</v>
+        <v>168.0165421809803</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>172.755743443542</v>
+        <v>172.7427139533656</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>172.4978042596788</v>
+        <v>172.4899906353849</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>173.0479836956233</v>
+        <v>173.0659114855505</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>173.3824372368274</v>
+        <v>173.3749148213857</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>159.9818012461961</v>
+        <v>160.0483849725165</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>160.3102067574815</v>
+        <v>160.3370002333355</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>160.9415014939364</v>
+        <v>160.992411951845</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>161.9465815858901</v>
+        <v>161.917986722565</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>166.3639111120289</v>
+        <v>166.3531190691558</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>166.421553854681</v>
+        <v>166.4389857699087</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>167.0450066399088</v>
+        <v>166.9480358488285</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>167.649294360307</v>
+        <v>167.6464044025216</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>173.731346922562</v>
+        <v>173.7647346234485</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>173.5011707636277</v>
+        <v>173.455464354432</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>174.0612399265075</v>
+        <v>174.0993639463615</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>174.3831861493639</v>
+        <v>174.3266242170385</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>160.8572831302671</v>
+        <v>160.9445455012376</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>161.1608241363716</v>
+        <v>161.2280926149292</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>161.8236751985</v>
+        <v>161.8470302225943</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>162.6273922071649</v>
+        <v>162.6266498743833</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>167.3000685293306</v>
+        <v>167.263247619776</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>167.2884642759127</v>
+        <v>167.3104425300923</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>167.8852625380304</v>
+        <v>167.8741887075579</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>168.414975763384</v>
+        <v>168.4629383128573</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>172.7062504815428</v>
+        <v>172.707929905179</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>173.0099346611973</v>
+        <v>173.0064668563378</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>173.3118718958097</v>
+        <v>173.2945401457854</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>172.9075139397259</v>
+        <v>172.9469185520886</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>160.7945849550189</v>
+        <v>160.7717192740631</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>160.6758162156789</v>
+        <v>160.6655696162159</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>161.5343050874056</v>
+        <v>161.5451735439989</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>161.7291046303785</v>
+        <v>161.7598222640948</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>166.7206223027908</v>
+        <v>166.7516069041701</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>166.8392915126294</v>
+        <v>166.8909804326583</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>167.3694008269422</v>
+        <v>167.3789851039636</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>167.3841993136338</v>
+        <v>167.3282092240829</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>173.8661421200895</v>
+        <v>173.8503893202971</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>174.2373926341784</v>
+        <v>174.2287165459378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>174.4345130795499</v>
+        <v>174.4230180227375</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>174.0032768797266</v>
+        <v>174.0857729182217</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>161.8339989899361</v>
+        <v>161.8015530535063</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>161.7381718106334</v>
+        <v>161.7162399844693</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>162.4951012431833</v>
+        <v>162.5154741046719</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>162.5632602615839</v>
+        <v>162.5524615823045</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>167.7630006961781</v>
+        <v>167.7688526649459</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>167.8323970769054</v>
+        <v>167.8772614431682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>168.3238994382649</v>
+        <v>168.3536324430436</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>168.3010637020463</v>
+        <v>168.2607881923446</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>173.0007359372653</v>
+        <v>173.0441985892354</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>172.9688324603778</v>
+        <v>173.0084533269689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174.2678748551789</v>
+        <v>174.2387817190435</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173.5416513624052</v>
+        <v>173.5165806918307</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>160.869516522691</v>
+        <v>160.8669637323114</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>160.9936342184255</v>
+        <v>161.029055753855</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>161.1105454669805</v>
+        <v>161.1221657156531</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>161.5977842156794</v>
+        <v>161.6572310885076</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>166.6505876449635</v>
+        <v>166.7104637641923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166.746506695631</v>
+        <v>166.7589747669341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>167.4004032858814</v>
+        <v>167.3948168090324</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>167.2570712605987</v>
+        <v>167.2838863632826</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>173.8995486684667</v>
+        <v>173.8830028328867</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>173.9613490328209</v>
+        <v>174.0241283650913</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>175.2974472670767</v>
+        <v>175.3035330527031</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>174.5169815268778</v>
+        <v>174.5042144183977</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>161.6974350266009</v>
+        <v>161.7239331630867</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>161.8401209296784</v>
+        <v>161.8166846289684</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>161.9943044092364</v>
+        <v>161.9599955100257</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>162.3286060567621</v>
+        <v>162.3285748155303</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>167.4797088942386</v>
+        <v>167.5190521047212</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>167.5987673674128</v>
+        <v>167.5960303808577</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>168.3064577699089</v>
+        <v>168.2951183819148</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>168.0714883363659</v>
+        <v>168.1330476856546</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>172.9395355326013</v>
+        <v>172.943260940433</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>172.8764492776783</v>
+        <v>172.8561116756842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>173.5852221388689</v>
+        <v>173.5222643105131</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>173.428029193425</v>
+        <v>173.4686859511562</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>160.6456869072326</v>
+        <v>160.6514886225675</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>160.7987434034213</v>
+        <v>160.7911117052012</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>161.2327066281573</v>
+        <v>161.1923514615439</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>161.9036522355279</v>
+        <v>161.9065604545671</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>166.7078031994301</v>
+        <v>166.7134362621673</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166.7750909978487</v>
+        <v>166.7756916948959</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>167.3373561093734</v>
+        <v>167.3392253163208</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>167.5505442014831</v>
+        <v>167.5420387446536</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>173.4237117341938</v>
+        <v>173.4350992178273</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>173.3921753622891</v>
+        <v>173.3832673739154</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>174.1124571220398</v>
+        <v>174.0954608229893</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>173.9856493957674</v>
+        <v>173.9990854331447</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>161.1109958098429</v>
+        <v>161.0907964983102</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>161.2685947287239</v>
+        <v>161.2678290466687</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>161.7088348250587</v>
+        <v>161.6879564373868</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>162.2908610132243</v>
+        <v>162.2770546146193</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>167.1901405949151</v>
+        <v>167.1686526005541</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>167.2255616375207</v>
+        <v>167.2461748704604</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>167.7885548220953</v>
+        <v>167.8039461639804</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>168.0093534312545</v>
+        <v>167.9946960362607</v>
       </c>
     </row>
     <row r="19">
